--- a/data/trans_orig/P1423_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1423_2015-Habitat-trans_orig.xlsx
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>13,91%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>93,89%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,67%</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2202,12 +2202,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,82%</t>
         </is>
       </c>
     </row>
